--- a/Kaupulehu/Final_Species_List.xlsx
+++ b/Kaupulehu/Final_Species_List.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eristig/Desktop/TNC/LBSPR_Kaupulehu/Kaupulehu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\TNC\Hawaii\SizeLimit\R code\LBSPR\Kaupulehu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD09FC9-4C82-2140-A85E-4CEF84671DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB51F1-3199-4B86-9D5E-2FEDBB4425DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="-2620" windowWidth="32000" windowHeight="24000" xr2:uid="{5D543E9C-58F8-0449-BE61-D164A54F8161}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{43349511-4244-004A-BC9F-C95F5BF33066}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{43349511-4244-004A-BC9F-C95F5BF33066}"/>
   </bookViews>
   <sheets>
     <sheet name="Code List" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,17 @@
     <sheet name="Erin's List" sheetId="7" r:id="rId3"/>
     <sheet name="Lit Review" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1029,7 +1038,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="203">
   <si>
     <t>Species</t>
   </si>
@@ -1632,6 +1641,12 @@
   </si>
   <si>
     <t>Access (Langston 2009)</t>
+  </si>
+  <si>
+    <t>Fixed typo in Access Linf=256</t>
+  </si>
+  <si>
+    <t>LVB changed to Iwaski 1995 within Molony 2008</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1658,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2564,19 +2579,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334C5A89-C954-A94F-8D3C-CE4743919E74}">
   <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AJ23" sqref="AJ23"/>
-    </sheetView>
-    <sheetView topLeftCell="U1" workbookViewId="1"/>
+    <sheetView topLeftCell="U1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="14.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="14.1640625" style="1"/>
-    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.1640625" style="1"/>
+    <col min="1" max="11" width="14.19921875" style="1"/>
+    <col min="12" max="12" width="14.296875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>143</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
@@ -2727,27 +2739,27 @@
         <v>3.03193</v>
       </c>
       <c r="T2" s="1">
-        <f>P2</f>
+        <f t="shared" ref="T2:T15" si="0">P2</f>
         <v>276</v>
       </c>
       <c r="U2" s="1">
-        <f>T2+1</f>
+        <f t="shared" ref="U2:U15" si="1">T2+1</f>
         <v>277</v>
       </c>
       <c r="V2" s="6">
-        <f>-(LN(0.04))/Q2</f>
+        <f t="shared" ref="V2:V15" si="2">-(LN(0.04))/Q2</f>
         <v>9.196788071052002E-2</v>
       </c>
       <c r="W2" s="1">
-        <f>V2/L2</f>
+        <f t="shared" ref="W2:W15" si="3">V2/L2</f>
         <v>0.36787152284208008</v>
       </c>
       <c r="X2" s="1">
-        <f>T2</f>
+        <f t="shared" ref="X2:X9" si="4">T2</f>
         <v>276</v>
       </c>
       <c r="Y2" s="1">
-        <f>X2+1</f>
+        <f t="shared" ref="Y2:Y15" si="5">X2+1</f>
         <v>277</v>
       </c>
       <c r="Z2" s="1">
@@ -2770,7 +2782,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>62</v>
       </c>
@@ -2817,27 +2829,27 @@
         <v>3.032</v>
       </c>
       <c r="T3" s="1">
-        <f>P3</f>
+        <f t="shared" si="0"/>
         <v>282</v>
       </c>
       <c r="U3" s="1">
-        <f>T3+1</f>
+        <f t="shared" si="1"/>
         <v>283</v>
       </c>
       <c r="V3" s="6">
-        <f>-(LN(0.04))/Q3</f>
+        <f t="shared" si="2"/>
         <v>0.11495985088815001</v>
       </c>
       <c r="W3" s="1">
-        <f>V3/L3</f>
+        <f t="shared" si="3"/>
         <v>0.38837787462212847</v>
       </c>
       <c r="X3" s="1">
-        <f>T3</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="Y3" s="1">
-        <f>X3+1</f>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
       <c r="Z3" s="1">
@@ -2860,7 +2872,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>62</v>
       </c>
@@ -2906,27 +2918,27 @@
         <v>2.56968</v>
       </c>
       <c r="T4" s="1">
-        <f>P4</f>
+        <f t="shared" si="0"/>
         <v>181.60919540229884</v>
       </c>
       <c r="U4" s="1">
-        <f>T4+1</f>
+        <f t="shared" si="1"/>
         <v>182.60919540229884</v>
       </c>
       <c r="V4" s="6" t="e">
-        <f>-(LN(0.04))/Q4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W4" s="1" t="e">
-        <f>V4/L4</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X4" s="1">
-        <f>T4</f>
+        <f t="shared" si="4"/>
         <v>181.60919540229884</v>
       </c>
       <c r="Y4" s="1">
-        <f>X4+1</f>
+        <f t="shared" si="5"/>
         <v>182.60919540229884</v>
       </c>
       <c r="Z4" s="1">
@@ -2942,7 +2954,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>62</v>
       </c>
@@ -2988,27 +3000,27 @@
         <v>2.56968</v>
       </c>
       <c r="T5" s="1">
-        <f>P5</f>
+        <f t="shared" si="0"/>
         <v>179.31034482758622</v>
       </c>
       <c r="U5" s="1">
-        <f>T5+1</f>
+        <f t="shared" si="1"/>
         <v>180.31034482758622</v>
       </c>
       <c r="V5" s="6" t="e">
-        <f>-(LN(0.04))/Q5</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W5" s="1" t="e">
-        <f>V5/L5</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X5" s="1">
-        <f>T5</f>
+        <f t="shared" si="4"/>
         <v>179.31034482758622</v>
       </c>
       <c r="Y5" s="1">
-        <f>X5+1</f>
+        <f t="shared" si="5"/>
         <v>180.31034482758622</v>
       </c>
       <c r="Z5" s="1">
@@ -3024,7 +3036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>62</v>
       </c>
@@ -3071,27 +3083,27 @@
         <v>2.9844900000000001</v>
       </c>
       <c r="T6" s="1">
-        <f>P6</f>
+        <f t="shared" si="0"/>
         <v>496</v>
       </c>
       <c r="U6" s="1">
-        <f>T6+1</f>
+        <f t="shared" si="1"/>
         <v>497</v>
       </c>
       <c r="V6" s="6">
-        <f>-(LN(0.04))/Q6</f>
+        <f t="shared" si="2"/>
         <v>9.4672818378476492E-2</v>
       </c>
       <c r="W6" s="1">
-        <f>V6/L6</f>
+        <f t="shared" si="3"/>
         <v>0.32987044731176479</v>
       </c>
       <c r="X6" s="1">
-        <f>T6</f>
+        <f t="shared" si="4"/>
         <v>496</v>
       </c>
       <c r="Y6" s="1">
-        <f>X6+1</f>
+        <f t="shared" si="5"/>
         <v>497</v>
       </c>
       <c r="Z6" s="1">
@@ -3109,7 +3121,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>177</v>
       </c>
@@ -3149,27 +3161,27 @@
         <v>3.04</v>
       </c>
       <c r="T7" s="1">
-        <f>P7</f>
+        <f t="shared" si="0"/>
         <v>423.5</v>
       </c>
       <c r="U7" s="1">
-        <f>T7+1</f>
+        <f t="shared" si="1"/>
         <v>424.5</v>
       </c>
       <c r="V7" s="6">
-        <f>-(LN(0.04))/Q7</f>
+        <f t="shared" si="2"/>
         <v>0.22991970177630003</v>
       </c>
       <c r="W7" s="1">
-        <f>V7/L7</f>
+        <f t="shared" si="3"/>
         <v>1.2773316765350002</v>
       </c>
       <c r="X7" s="1">
-        <f>T7</f>
+        <f t="shared" si="4"/>
         <v>423.5</v>
       </c>
       <c r="Y7" s="1">
-        <f>X7+1</f>
+        <f t="shared" si="5"/>
         <v>424.5</v>
       </c>
       <c r="Z7" s="1">
@@ -3185,7 +3197,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>177</v>
       </c>
@@ -3225,27 +3237,27 @@
         <v>3.02</v>
       </c>
       <c r="T8" s="1">
-        <f>P8</f>
+        <f t="shared" si="0"/>
         <v>431.5</v>
       </c>
       <c r="U8" s="1">
-        <f>T8+1</f>
+        <f t="shared" si="1"/>
         <v>432.5</v>
       </c>
       <c r="V8" s="6">
-        <f>-(LN(0.04))/Q8</f>
+        <f t="shared" si="2"/>
         <v>0.29262507498801821</v>
       </c>
       <c r="W8" s="1">
-        <f>V8/L8</f>
+        <f t="shared" si="3"/>
         <v>1.1254810576462237</v>
       </c>
       <c r="X8" s="1">
-        <f>T8</f>
+        <f t="shared" si="4"/>
         <v>431.5</v>
       </c>
       <c r="Y8" s="1">
-        <f>X8+1</f>
+        <f t="shared" si="5"/>
         <v>432.5</v>
       </c>
       <c r="Z8" s="1">
@@ -3261,7 +3273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>64</v>
       </c>
@@ -3308,27 +3320,27 @@
         <v>2.4041199999999998</v>
       </c>
       <c r="T9" s="1">
-        <f>P9</f>
+        <f t="shared" si="0"/>
         <v>489</v>
       </c>
       <c r="U9" s="1">
-        <f>T9+1</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="V9" s="6">
-        <f>-(LN(0.04))/Q9</f>
+        <f t="shared" si="2"/>
         <v>0.10383470402800647</v>
       </c>
       <c r="W9" s="1">
-        <f>V9/L9</f>
+        <f t="shared" si="3"/>
         <v>0.27912554846238297</v>
       </c>
       <c r="X9" s="1">
-        <f>T9</f>
+        <f t="shared" si="4"/>
         <v>489</v>
       </c>
       <c r="Y9" s="1">
-        <f>X9+1</f>
+        <f t="shared" si="5"/>
         <v>490</v>
       </c>
       <c r="Z9" s="1">
@@ -3341,7 +3353,7 @@
         <v>0.23</v>
       </c>
       <c r="AD9">
-        <f>AC9/V9</f>
+        <f t="shared" ref="AD9:AD36" si="6">AC9/V9</f>
         <v>2.2150590417050164</v>
       </c>
       <c r="AE9" s="1">
@@ -3351,7 +3363,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>65</v>
       </c>
@@ -3398,19 +3410,19 @@
         <v>2.9129999999999998</v>
       </c>
       <c r="T10" s="1">
-        <f>P10</f>
+        <f t="shared" si="0"/>
         <v>805</v>
       </c>
       <c r="U10" s="1">
-        <f>T10+1</f>
+        <f t="shared" si="1"/>
         <v>806</v>
       </c>
       <c r="V10" s="6">
-        <f>-(LN(0.04))/Q10</f>
+        <f t="shared" si="2"/>
         <v>0.29262507498801821</v>
       </c>
       <c r="W10" s="1">
-        <f>V10/L10</f>
+        <f t="shared" si="3"/>
         <v>2.6362619368289928</v>
       </c>
       <c r="X10" s="1">
@@ -3418,7 +3430,7 @@
         <v>254</v>
       </c>
       <c r="Y10" s="1">
-        <f>X10+1</f>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="Z10" s="1">
@@ -3434,7 +3446,7 @@
         <v>0.3</v>
       </c>
       <c r="AD10">
-        <f>AC10/V10</f>
+        <f t="shared" si="6"/>
         <v>1.0252026420233595</v>
       </c>
       <c r="AE10" s="1">
@@ -3444,7 +3456,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
@@ -3491,19 +3503,19 @@
         <v>3.0009999999999999</v>
       </c>
       <c r="T11" s="1">
-        <f>P11</f>
+        <f t="shared" si="0"/>
         <v>394</v>
       </c>
       <c r="U11" s="1">
-        <f>T11+1</f>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="V11" s="6">
-        <f>-(LN(0.04))/Q11</f>
+        <f t="shared" si="2"/>
         <v>0.26823965207235007</v>
       </c>
       <c r="W11" s="1">
-        <f>V11/L11</f>
+        <f t="shared" si="3"/>
         <v>2.2353304339362507</v>
       </c>
       <c r="X11" s="1">
@@ -3511,7 +3523,7 @@
         <v>254</v>
       </c>
       <c r="Y11" s="1">
-        <f>X11+1</f>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="Z11" s="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="AC11"/>
       <c r="AD11">
-        <f>AC11/V11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>65</v>
       </c>
@@ -3579,19 +3591,19 @@
         <v>2.9409999999999998</v>
       </c>
       <c r="T12" s="1">
-        <f>P12</f>
+        <f t="shared" si="0"/>
         <v>476</v>
       </c>
       <c r="U12" s="1">
-        <f>T12+1</f>
+        <f t="shared" si="1"/>
         <v>477</v>
       </c>
       <c r="V12" s="6">
-        <f>-(LN(0.04))/Q12</f>
+        <f t="shared" si="2"/>
         <v>0.45983940355260006</v>
       </c>
       <c r="W12" s="1">
-        <f>V12/L12</f>
+        <f t="shared" si="3"/>
         <v>1.9735596718995709</v>
       </c>
       <c r="X12" s="1">
@@ -3599,7 +3611,7 @@
         <v>254</v>
       </c>
       <c r="Y12" s="1">
-        <f>X12+1</f>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="Z12" s="1">
@@ -3615,7 +3627,7 @@
         <v>0.16</v>
       </c>
       <c r="AD12">
-        <f>AC12/V12</f>
+        <f t="shared" si="6"/>
         <v>0.34794756335338267</v>
       </c>
       <c r="AE12" s="1">
@@ -3625,7 +3637,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>65</v>
       </c>
@@ -3675,19 +3687,19 @@
         <v>2.9860000000000002</v>
       </c>
       <c r="T13" s="1">
-        <f>P13</f>
+        <f t="shared" si="0"/>
         <v>506</v>
       </c>
       <c r="U13" s="1">
-        <f>T13+1</f>
+        <f t="shared" si="1"/>
         <v>507</v>
       </c>
       <c r="V13" s="6">
-        <f>-(LN(0.04))/Q13</f>
+        <f t="shared" si="2"/>
         <v>0.29262507498801821</v>
       </c>
       <c r="W13" s="1">
-        <f>V13/L13</f>
+        <f t="shared" si="3"/>
         <v>1.2192711457834093</v>
       </c>
       <c r="X13" s="1">
@@ -3695,7 +3707,7 @@
         <v>254</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13+1</f>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="Z13" s="1">
@@ -3709,14 +3721,14 @@
       </c>
       <c r="AC13"/>
       <c r="AD13">
-        <f>AC13/V13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>74</v>
       </c>
@@ -3760,23 +3772,23 @@
         <v>2.99</v>
       </c>
       <c r="T14" s="1">
-        <f>P14</f>
+        <f t="shared" si="0"/>
         <v>268</v>
       </c>
       <c r="U14" s="1">
-        <f>T14+1</f>
+        <f t="shared" si="1"/>
         <v>269</v>
       </c>
       <c r="V14" s="6">
-        <f>-(LN(0.04))/Q14</f>
+        <f t="shared" si="2"/>
         <v>0.12875503299472801</v>
       </c>
       <c r="W14" s="1">
-        <f>V14/L14</f>
+        <f t="shared" si="3"/>
         <v>1.7167337732630403</v>
       </c>
       <c r="Y14" s="1">
-        <f>X14+1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z14" s="1">
@@ -3789,7 +3801,7 @@
         <v>0.01</v>
       </c>
       <c r="AD14">
-        <f>AC14/V14</f>
+        <f t="shared" si="6"/>
         <v>7.7666866819951483E-2</v>
       </c>
       <c r="AE14" s="1">
@@ -3799,7 +3811,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>61</v>
       </c>
@@ -3849,19 +3861,19 @@
         <v>2.9693100000000001</v>
       </c>
       <c r="T15" s="1">
-        <f>P15</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="U15" s="1">
-        <f>T15+1</f>
+        <f t="shared" si="1"/>
         <v>171</v>
       </c>
       <c r="V15" s="6">
-        <f>-(LN(0.04))/Q15</f>
+        <f t="shared" si="2"/>
         <v>0.32188758248682003</v>
       </c>
       <c r="W15" s="1">
-        <f>V15/L15</f>
+        <f t="shared" si="3"/>
         <v>0.7282524490652037</v>
       </c>
       <c r="X15" s="1">
@@ -3869,7 +3881,7 @@
         <v>170</v>
       </c>
       <c r="Y15" s="1">
-        <f>X15+1</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="Z15" s="1">
@@ -3880,14 +3892,14 @@
       </c>
       <c r="AC15"/>
       <c r="AD15">
-        <f>AC15/V15</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH15" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>62</v>
       </c>
@@ -3939,27 +3951,27 @@
         <v>3</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" ref="T16:T18" si="0">P16</f>
+        <f t="shared" ref="T16:T18" si="7">P16</f>
         <v>106.38297872340426</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" ref="U16:U18" si="1">T16+1</f>
+        <f t="shared" ref="U16:U18" si="8">T16+1</f>
         <v>107.38297872340426</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" ref="V16:V18" si="2">-(LN(0.04))/Q16</f>
+        <f t="shared" ref="V16:V18" si="9">-(LN(0.04))/Q16</f>
         <v>8.2535277560723097E-2</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16:W18" si="3">V16/L16</f>
+        <f t="shared" ref="W16:W18" si="10">V16/L16</f>
         <v>0.16186688571929</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" ref="X16:X18" si="4">T16</f>
+        <f t="shared" ref="X16:X18" si="11">T16</f>
         <v>106.38297872340426</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" ref="Y16:Y18" si="5">X16+1</f>
+        <f t="shared" ref="Y16:Y18" si="12">X16+1</f>
         <v>107.38297872340426</v>
       </c>
       <c r="Z16" s="1">
@@ -3969,14 +3981,14 @@
         <v>5</v>
       </c>
       <c r="AD16" s="1">
-        <f>AC16/V16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>62</v>
       </c>
@@ -4028,27 +4040,27 @@
         <v>3</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>89.361702127659584</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>90.361702127659584</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.2535277560723097E-2</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.12595113896731111</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>89.361702127659584</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>90.361702127659584</v>
       </c>
       <c r="Z17" s="1">
@@ -4058,14 +4070,14 @@
         <v>5</v>
       </c>
       <c r="AD17" s="1">
-        <f>AC17/V17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>62</v>
       </c>
@@ -4105,27 +4117,27 @@
         <v>3</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>97.872340425531917</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>98.872340425531917</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.2535277560723097E-2</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.19511885948161489</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>97.872340425531917</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>98.872340425531917</v>
       </c>
       <c r="Z18" s="1">
@@ -4135,14 +4147,14 @@
         <v>5</v>
       </c>
       <c r="AD18" s="1">
-        <f>AC18/V18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>65</v>
       </c>
@@ -4189,19 +4201,19 @@
         <v>2.92</v>
       </c>
       <c r="T19" s="1">
-        <f>P19</f>
+        <f t="shared" ref="T19:T36" si="13">P19</f>
         <v>762</v>
       </c>
       <c r="U19" s="1">
-        <f>T19+1</f>
+        <f t="shared" ref="U19:U36" si="14">T19+1</f>
         <v>763</v>
       </c>
       <c r="V19" s="6">
-        <f>-(LN(0.04))/Q19</f>
+        <f t="shared" ref="V19:V36" si="15">-(LN(0.04))/Q19</f>
         <v>0.24760583268216926</v>
       </c>
       <c r="W19" s="1">
-        <f>V19/L19</f>
+        <f t="shared" ref="W19:W36" si="16">V19/L19</f>
         <v>0.41267638780361543</v>
       </c>
       <c r="X19" s="1">
@@ -4209,7 +4221,7 @@
         <v>762</v>
       </c>
       <c r="Y19" s="1">
-        <f>X19+1</f>
+        <f t="shared" ref="Y19:Y24" si="17">X19+1</f>
         <v>763</v>
       </c>
       <c r="Z19" s="1">
@@ -4220,14 +4232,14 @@
       </c>
       <c r="AC19"/>
       <c r="AD19">
-        <f>AC19/V19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>64</v>
       </c>
@@ -4265,19 +4277,19 @@
         <v>3.2469600000000001</v>
       </c>
       <c r="T20" s="1">
-        <f>P20</f>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="U20" s="1">
-        <f>T20+1</f>
+        <f t="shared" si="14"/>
         <v>201</v>
       </c>
       <c r="V20" s="6">
-        <f>-(LN(0.04))/Q20</f>
+        <f t="shared" si="15"/>
         <v>0.40235947810852507</v>
       </c>
       <c r="W20" s="1">
-        <f>V20/L20</f>
+        <f t="shared" si="16"/>
         <v>1.3874464762362935</v>
       </c>
       <c r="X20" s="1">
@@ -4285,7 +4297,7 @@
         <v>200</v>
       </c>
       <c r="Y20" s="1">
-        <f>X20+1</f>
+        <f t="shared" si="17"/>
         <v>201</v>
       </c>
       <c r="Z20" s="1">
@@ -4298,7 +4310,7 @@
         <v>0.36</v>
       </c>
       <c r="AD20">
-        <f>AC20/V20</f>
+        <f t="shared" si="6"/>
         <v>0.894722305765841</v>
       </c>
       <c r="AE20" s="1">
@@ -4308,7 +4320,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>142</v>
       </c>
@@ -4346,19 +4358,19 @@
         <v>3.089</v>
       </c>
       <c r="T21" s="1">
-        <f>P21</f>
+        <f t="shared" si="13"/>
         <v>325</v>
       </c>
       <c r="U21" s="1">
-        <f>T21+1</f>
+        <f t="shared" si="14"/>
         <v>326</v>
       </c>
       <c r="V21" s="6">
-        <f>-(LN(0.04))/Q21</f>
+        <f t="shared" si="15"/>
         <v>0.24760583268216926</v>
       </c>
       <c r="W21" s="1">
-        <f>V21/L21</f>
+        <f t="shared" si="16"/>
         <v>0.82535277560723086</v>
       </c>
       <c r="X21" s="1">
@@ -4366,7 +4378,7 @@
         <v>279.39999999999998</v>
       </c>
       <c r="Y21" s="1">
-        <f>X21+1</f>
+        <f t="shared" si="17"/>
         <v>280.39999999999998</v>
       </c>
       <c r="Z21" s="1">
@@ -4380,14 +4392,14 @@
       </c>
       <c r="AC21"/>
       <c r="AD21">
-        <f>AC21/V21</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH21" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>63</v>
       </c>
@@ -4434,19 +4446,19 @@
         <v>3.21</v>
       </c>
       <c r="T22" s="1">
-        <f>P22</f>
+        <f t="shared" si="13"/>
         <v>199</v>
       </c>
       <c r="U22" s="1">
-        <f>T22+1</f>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="V22" s="6">
-        <f>-(LN(0.04))/Q22</f>
+        <f t="shared" si="15"/>
         <v>0.53647930414470013</v>
       </c>
       <c r="W22" s="1">
-        <f>V22/L22</f>
+        <f t="shared" si="16"/>
         <v>0.95120443997287263</v>
       </c>
       <c r="X22" s="1">
@@ -4454,7 +4466,7 @@
         <v>177.79999999999998</v>
       </c>
       <c r="Y22" s="1">
-        <f>X22+1</f>
+        <f t="shared" si="17"/>
         <v>178.79999999999998</v>
       </c>
       <c r="Z22" s="1">
@@ -4467,7 +4479,7 @@
         <v>0.42</v>
       </c>
       <c r="AD22">
-        <f>AC22/V22</f>
+        <f t="shared" si="6"/>
         <v>0.78288201754511089</v>
       </c>
       <c r="AE22" s="1">
@@ -4477,7 +4489,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>63</v>
       </c>
@@ -4524,19 +4536,19 @@
         <v>2.96</v>
       </c>
       <c r="T23" s="1">
-        <f>P23</f>
+        <f t="shared" si="13"/>
         <v>206</v>
       </c>
       <c r="U23" s="1">
-        <f>T23+1</f>
+        <f t="shared" si="14"/>
         <v>207</v>
       </c>
       <c r="V23" s="6">
-        <f>-(LN(0.04))/Q23</f>
+        <f t="shared" si="15"/>
         <v>0.64377516497364007</v>
       </c>
       <c r="W23" s="1">
-        <f>V23/L23</f>
+        <f t="shared" si="16"/>
         <v>0.49521166536433847</v>
       </c>
       <c r="X23" s="1">
@@ -4544,7 +4556,7 @@
         <v>206</v>
       </c>
       <c r="Y23" s="1">
-        <f>X23+1</f>
+        <f t="shared" si="17"/>
         <v>207</v>
       </c>
       <c r="Z23" s="1">
@@ -4557,7 +4569,7 @@
         <v>0.01</v>
       </c>
       <c r="AD23">
-        <f>AC23/V23</f>
+        <f t="shared" si="6"/>
         <v>1.5533373363990298E-2</v>
       </c>
       <c r="AE23" s="1">
@@ -4567,7 +4579,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>75</v>
       </c>
@@ -4611,19 +4623,19 @@
         <v>3.0033599999999998</v>
       </c>
       <c r="T24" s="1">
-        <f>P24</f>
+        <f t="shared" si="13"/>
         <v>175</v>
       </c>
       <c r="U24" s="1">
-        <f>T24+1</f>
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
       <c r="V24" s="6">
-        <f>-(LN(0.04))/Q24</f>
+        <f t="shared" si="15"/>
         <v>0.11921762314326668</v>
       </c>
       <c r="W24" s="1">
-        <f>V24/L24</f>
+        <f t="shared" si="16"/>
         <v>0.80825507215774028</v>
       </c>
       <c r="X24" s="1">
@@ -4631,7 +4643,7 @@
         <v>175</v>
       </c>
       <c r="Y24" s="1">
-        <f>X24+1</f>
+        <f t="shared" si="17"/>
         <v>176</v>
       </c>
       <c r="Z24" s="1">
@@ -4644,7 +4656,7 @@
         <v>0.04</v>
       </c>
       <c r="AD24">
-        <f>AC24/V24</f>
+        <f t="shared" si="6"/>
         <v>0.33552086466219039</v>
       </c>
       <c r="AE24" s="1">
@@ -4654,7 +4666,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>62</v>
       </c>
@@ -4701,19 +4713,19 @@
         <v>3.2429700000000001</v>
       </c>
       <c r="T25" s="1">
-        <f>P25</f>
+        <f t="shared" si="13"/>
         <v>269</v>
       </c>
       <c r="U25" s="1">
-        <f>T25+1</f>
+        <f t="shared" si="14"/>
         <v>270</v>
       </c>
       <c r="V25" s="6">
-        <f>-(LN(0.04))/Q25</f>
+        <f t="shared" si="15"/>
         <v>0.12875503299472801</v>
       </c>
       <c r="W25" s="1">
-        <f>V25/L25</f>
+        <f t="shared" si="16"/>
         <v>0.32028615172817915</v>
       </c>
       <c r="X25" s="1">
@@ -4734,7 +4746,7 @@
         <v>0.11</v>
       </c>
       <c r="AD25">
-        <f>AC25/V25</f>
+        <f t="shared" si="6"/>
         <v>0.85433553501946635</v>
       </c>
       <c r="AE25" s="1">
@@ -4744,7 +4756,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>62</v>
       </c>
@@ -4791,19 +4803,19 @@
         <v>2.8540000000000001</v>
       </c>
       <c r="T26" s="1">
-        <f>P26</f>
+        <f t="shared" si="13"/>
         <v>511</v>
       </c>
       <c r="U26" s="1">
-        <f>T26+1</f>
+        <f t="shared" si="14"/>
         <v>512</v>
       </c>
       <c r="V26" s="6">
-        <f>-(LN(0.04))/Q26</f>
+        <f t="shared" si="15"/>
         <v>7.3156268747004552E-2</v>
       </c>
       <c r="W26" s="1">
-        <f>V26/L26</f>
+        <f t="shared" si="16"/>
         <v>0.33102384048418348</v>
       </c>
       <c r="X26" s="1">
@@ -4811,7 +4823,7 @@
         <v>406.4</v>
       </c>
       <c r="Y26" s="1">
-        <f>X26+1</f>
+        <f t="shared" ref="Y26:Y36" si="18">X26+1</f>
         <v>407.4</v>
       </c>
       <c r="Z26" s="1">
@@ -4827,7 +4839,7 @@
         <v>0.13</v>
       </c>
       <c r="AD26">
-        <f>AC26/V26</f>
+        <f t="shared" si="6"/>
         <v>1.7770179128404902</v>
       </c>
       <c r="AE26" s="1">
@@ -4837,7 +4849,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>62</v>
       </c>
@@ -4884,19 +4896,19 @@
         <v>2.839</v>
       </c>
       <c r="T27" s="1">
-        <f>P27</f>
+        <f t="shared" si="13"/>
         <v>199</v>
       </c>
       <c r="U27" s="1">
-        <f>T27+1</f>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="V27" s="6">
-        <f>-(LN(0.04))/Q27</f>
+        <f t="shared" si="15"/>
         <v>0.12875503299472801</v>
       </c>
       <c r="W27" s="1">
-        <f>V27/L27</f>
+        <f t="shared" si="16"/>
         <v>0.37780232686246484</v>
       </c>
       <c r="X27" s="1">
@@ -4904,7 +4916,7 @@
         <v>199</v>
       </c>
       <c r="Y27" s="1">
-        <f>X27+1</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="Z27" s="1">
@@ -4917,7 +4929,7 @@
         <v>0.21</v>
       </c>
       <c r="AD27">
-        <f>AC27/V27</f>
+        <f t="shared" si="6"/>
         <v>1.6310042032189811</v>
       </c>
       <c r="AE27" s="1">
@@ -4927,7 +4939,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>62</v>
       </c>
@@ -4974,19 +4986,19 @@
         <v>3.03545</v>
       </c>
       <c r="T28" s="1">
-        <f>P28</f>
+        <f t="shared" si="13"/>
         <v>355</v>
       </c>
       <c r="U28" s="1">
-        <f>T28+1</f>
+        <f t="shared" si="14"/>
         <v>356</v>
       </c>
       <c r="V28" s="6">
-        <f>-(LN(0.04))/Q28</f>
+        <f t="shared" si="15"/>
         <v>6.4377516497364007E-2</v>
       </c>
       <c r="W28" s="1">
-        <f>V28/L28</f>
+        <f t="shared" si="16"/>
         <v>0.1463125374940091</v>
       </c>
       <c r="X28" s="1">
@@ -4994,7 +5006,7 @@
         <v>355.59999999999997</v>
       </c>
       <c r="Y28" s="1">
-        <f>X28+1</f>
+        <f t="shared" si="18"/>
         <v>356.59999999999997</v>
       </c>
       <c r="Z28" s="1">
@@ -5010,7 +5022,7 @@
         <v>0.25</v>
       </c>
       <c r="AD28">
-        <f>AC28/V28</f>
+        <f t="shared" si="6"/>
         <v>3.8833433409975742</v>
       </c>
       <c r="AE28" s="1">
@@ -5020,7 +5032,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>63</v>
       </c>
@@ -5067,19 +5079,19 @@
         <v>3.21082</v>
       </c>
       <c r="T29" s="1">
-        <f>P29</f>
+        <f t="shared" si="13"/>
         <v>164</v>
       </c>
       <c r="U29" s="1">
-        <f>T29+1</f>
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="V29" s="6">
-        <f>-(LN(0.04))/Q29</f>
+        <f t="shared" si="15"/>
         <v>0.64377516497364007</v>
       </c>
       <c r="W29" s="1">
-        <f>V29/L29</f>
+        <f t="shared" si="16"/>
         <v>0.85206163056533657</v>
       </c>
       <c r="X29" s="1">
@@ -5087,7 +5099,7 @@
         <v>177.79999999999998</v>
       </c>
       <c r="Y29" s="1">
-        <f>X29+1</f>
+        <f t="shared" si="18"/>
         <v>178.79999999999998</v>
       </c>
       <c r="Z29" s="1">
@@ -5101,14 +5113,14 @@
       </c>
       <c r="AC29"/>
       <c r="AD29">
-        <f>AC29/V29</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>63</v>
       </c>
@@ -5155,19 +5167,19 @@
         <v>3.21082</v>
       </c>
       <c r="T30" s="1">
-        <f>P30</f>
+        <f t="shared" si="13"/>
         <v>264</v>
       </c>
       <c r="U30" s="1">
-        <f>T30+1</f>
+        <f t="shared" si="14"/>
         <v>265</v>
       </c>
       <c r="V30" s="6">
-        <f>-(LN(0.04))/Q30</f>
+        <f t="shared" si="15"/>
         <v>0.53647930414470013</v>
       </c>
       <c r="W30" s="1">
-        <f>V30/L30</f>
+        <f t="shared" si="16"/>
         <v>0.99717342777825302</v>
       </c>
       <c r="X30" s="1">
@@ -5175,7 +5187,7 @@
         <v>254</v>
       </c>
       <c r="Y30" s="1">
-        <f>X30+1</f>
+        <f t="shared" si="18"/>
         <v>255</v>
       </c>
       <c r="Z30" s="1">
@@ -5191,7 +5203,7 @@
         <v>1.32</v>
       </c>
       <c r="AD30">
-        <f>AC30/V30</f>
+        <f t="shared" si="6"/>
         <v>2.4604863408560629</v>
       </c>
       <c r="AE30" s="1">
@@ -5201,7 +5213,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>65</v>
       </c>
@@ -5245,19 +5257,19 @@
         <v>2.88598</v>
       </c>
       <c r="T31" s="1">
-        <f>P31</f>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="U31" s="1">
-        <f>T31+1</f>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
       <c r="V31" s="6">
-        <f>-(LN(0.04))/Q31</f>
+        <f t="shared" si="15"/>
         <v>0.45983940355260006</v>
       </c>
       <c r="W31" s="1">
-        <f>V31/L31</f>
+        <f t="shared" si="16"/>
         <v>1.4978482200410426</v>
       </c>
       <c r="X31" s="1">
@@ -5265,7 +5277,7 @@
         <v>289</v>
       </c>
       <c r="Y31" s="1">
-        <f>X31+1</f>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
       <c r="Z31" s="1">
@@ -5276,14 +5288,14 @@
       </c>
       <c r="AC31"/>
       <c r="AD31">
-        <f>AC31/V31</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH31" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>61</v>
       </c>
@@ -5333,19 +5345,19 @@
         <v>3.3187099999999998</v>
       </c>
       <c r="T32" s="1">
-        <f>P32</f>
+        <f t="shared" si="13"/>
         <v>196</v>
       </c>
       <c r="U32" s="1">
-        <f>T32+1</f>
+        <f t="shared" si="14"/>
         <v>197</v>
       </c>
       <c r="V32" s="6">
-        <f>-(LN(0.04))/Q32</f>
+        <f t="shared" si="15"/>
         <v>0.53647930414470013</v>
       </c>
       <c r="W32" s="1">
-        <f>V32/L32</f>
+        <f t="shared" si="16"/>
         <v>0.3245488833301271</v>
       </c>
       <c r="X32" s="1">
@@ -5353,7 +5365,7 @@
         <v>304.79999999999995</v>
       </c>
       <c r="Y32" s="1">
-        <f>X32+1</f>
+        <f t="shared" si="18"/>
         <v>305.79999999999995</v>
       </c>
       <c r="Z32" s="1">
@@ -5369,7 +5381,7 @@
         <v>0.16</v>
       </c>
       <c r="AD32">
-        <f>AC32/V32</f>
+        <f t="shared" si="6"/>
         <v>0.29824076858861365</v>
       </c>
       <c r="AE32" s="1">
@@ -5379,7 +5391,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>61</v>
       </c>
@@ -5426,19 +5438,19 @@
         <v>3.109</v>
       </c>
       <c r="T33" s="1">
-        <f>P33</f>
+        <f t="shared" si="13"/>
         <v>374</v>
       </c>
       <c r="U33" s="1">
-        <f>T33+1</f>
+        <f t="shared" si="14"/>
         <v>375</v>
       </c>
       <c r="V33" s="6">
-        <f>-(LN(0.04))/Q33</f>
+        <f t="shared" si="15"/>
         <v>0.1463125374940091</v>
       </c>
       <c r="W33" s="1">
-        <f>V33/L33</f>
+        <f t="shared" si="16"/>
         <v>0.50802964407642048</v>
       </c>
       <c r="X33" s="1">
@@ -5446,7 +5458,7 @@
         <v>304.79999999999995</v>
       </c>
       <c r="Y33" s="1">
-        <f>X33+1</f>
+        <f t="shared" si="18"/>
         <v>305.79999999999995</v>
       </c>
       <c r="Z33" s="1">
@@ -5462,7 +5474,7 @@
         <v>0.2</v>
       </c>
       <c r="AD33">
-        <f>AC33/V33</f>
+        <f t="shared" si="6"/>
         <v>1.3669368560311463</v>
       </c>
       <c r="AE33" s="1">
@@ -5472,7 +5484,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>65</v>
       </c>
@@ -5510,19 +5522,19 @@
         <v>2.86</v>
       </c>
       <c r="T34" s="1">
-        <f>P34</f>
+        <f t="shared" si="13"/>
         <v>910</v>
       </c>
       <c r="U34" s="1">
-        <f>T34+1</f>
+        <f t="shared" si="14"/>
         <v>911</v>
       </c>
       <c r="V34" s="6">
-        <f>-(LN(0.04))/Q34</f>
+        <f t="shared" si="15"/>
         <v>0.21459172165788004</v>
       </c>
       <c r="W34" s="1">
-        <f>V34/L34</f>
+        <f t="shared" si="16"/>
         <v>0.94450581715616211</v>
       </c>
       <c r="X34" s="1">
@@ -5530,7 +5542,7 @@
         <v>910</v>
       </c>
       <c r="Y34" s="1">
-        <f>X34+1</f>
+        <f t="shared" si="18"/>
         <v>911</v>
       </c>
       <c r="Z34" s="1">
@@ -5543,7 +5555,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AD34">
-        <f>AC34/V34</f>
+        <f t="shared" si="6"/>
         <v>0.65240168128759246</v>
       </c>
       <c r="AE34" s="1">
@@ -5553,7 +5565,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>141</v>
       </c>
@@ -5600,19 +5612,19 @@
         <v>3.0109499999999998</v>
       </c>
       <c r="T35" s="1">
-        <f>P35</f>
+        <f t="shared" si="13"/>
         <v>876</v>
       </c>
       <c r="U35" s="1">
-        <f>T35+1</f>
+        <f t="shared" si="14"/>
         <v>877</v>
       </c>
       <c r="V35" s="6">
-        <f>-(LN(0.04))/Q35</f>
+        <f t="shared" si="15"/>
         <v>0.16941451709832633</v>
       </c>
       <c r="W35" s="1">
-        <f>V35/L35</f>
+        <f t="shared" si="16"/>
         <v>0.65159429653202439</v>
       </c>
       <c r="X35" s="1">
@@ -5620,7 +5632,7 @@
         <v>876</v>
       </c>
       <c r="Y35" s="1">
-        <f>X35+1</f>
+        <f t="shared" si="18"/>
         <v>877</v>
       </c>
       <c r="Z35" s="1">
@@ -5631,14 +5643,14 @@
       </c>
       <c r="AC35"/>
       <c r="AD35">
-        <f>AC35/V35</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -5677,19 +5689,19 @@
         <v>3.16</v>
       </c>
       <c r="T36" s="1">
-        <f>P36</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U36" s="1">
-        <f>T36+1</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V36" s="6">
-        <f>-(LN(0.04))/Q36</f>
+        <f t="shared" si="15"/>
         <v>7.8509166460200008E-2</v>
       </c>
       <c r="W36" s="1">
-        <f>V36/L36</f>
+        <f t="shared" si="16"/>
         <v>0.28548787803709091</v>
       </c>
       <c r="X36" s="1">
@@ -5697,7 +5709,7 @@
         <v>50.8</v>
       </c>
       <c r="Y36" s="1">
-        <f>X36+1</f>
+        <f t="shared" si="18"/>
         <v>51.8</v>
       </c>
       <c r="Z36" s="1">
@@ -5707,14 +5719,14 @@
         <v>5</v>
       </c>
       <c r="AD36" s="1">
-        <f>AC36/V36</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH36" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>61</v>
       </c>
@@ -5734,7 +5746,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>61</v>
       </c>
@@ -5753,7 +5765,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AH38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH38">
     <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5765,19 +5777,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618FE605-41FE-CB4E-AAB5-16EDBBFA9E22}">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="14.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="14.1640625" style="1"/>
-    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.1640625" style="1"/>
+    <col min="1" max="1" width="14.19921875" style="1"/>
+    <col min="2" max="2" width="22.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="11" width="14.19921875" style="1"/>
+    <col min="12" max="12" width="14.296875" style="1" customWidth="1"/>
+    <col min="13" max="31" width="14.19921875" style="1"/>
+    <col min="32" max="32" width="14.19921875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="14.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>143</v>
       </c>
@@ -5881,7 +5899,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
@@ -5928,19 +5946,19 @@
         <v>3.03193</v>
       </c>
       <c r="T2" s="1">
-        <f>P2</f>
+        <f t="shared" ref="T2:T16" si="0">P2</f>
         <v>276</v>
       </c>
       <c r="U2" s="1">
-        <f>T2+1</f>
+        <f t="shared" ref="U2:U16" si="1">T2+1</f>
         <v>277</v>
       </c>
       <c r="V2" s="6">
-        <f>-(LN(0.04))/Q2</f>
+        <f t="shared" ref="V2:V16" si="2">-(LN(0.04))/Q2</f>
         <v>9.196788071052002E-2</v>
       </c>
       <c r="W2" s="1">
-        <f>V2/L2</f>
+        <f t="shared" ref="W2:W16" si="3">V2/L2</f>
         <v>0.36787152284208008</v>
       </c>
       <c r="X2" s="1">
@@ -5948,7 +5966,7 @@
         <v>276</v>
       </c>
       <c r="Y2" s="1">
-        <f>X2+1</f>
+        <f t="shared" ref="Y2:Y16" si="4">X2+1</f>
         <v>277</v>
       </c>
       <c r="Z2" s="1">
@@ -5961,7 +5979,7 @@
         <v>0.27</v>
       </c>
       <c r="AD2">
-        <f>AC2/V2</f>
+        <f t="shared" ref="AD2:AD16" si="5">AC2/V2</f>
         <v>2.9358075657941662</v>
       </c>
       <c r="AE2" s="1">
@@ -5971,7 +5989,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>62</v>
       </c>
@@ -6018,19 +6036,19 @@
         <v>3.032</v>
       </c>
       <c r="T3" s="1">
-        <f>P3</f>
+        <f t="shared" si="0"/>
         <v>282</v>
       </c>
       <c r="U3" s="1">
-        <f>T3+1</f>
+        <f t="shared" si="1"/>
         <v>283</v>
       </c>
       <c r="V3" s="6">
-        <f>-(LN(0.04))/Q3</f>
+        <f t="shared" si="2"/>
         <v>0.11495985088815001</v>
       </c>
       <c r="W3" s="1">
-        <f>V3/L3</f>
+        <f t="shared" si="3"/>
         <v>0.38837787462212847</v>
       </c>
       <c r="X3" s="1">
@@ -6038,7 +6056,7 @@
         <v>282</v>
       </c>
       <c r="Y3" s="1">
-        <f>X3+1</f>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="Z3" s="1">
@@ -6051,7 +6069,7 @@
         <v>0.18</v>
       </c>
       <c r="AD3">
-        <f>AC3/V3</f>
+        <f t="shared" si="5"/>
         <v>1.5657640350902218</v>
       </c>
       <c r="AE3" s="1">
@@ -6061,7 +6079,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>62</v>
       </c>
@@ -6108,19 +6126,19 @@
         <v>2.9844900000000001</v>
       </c>
       <c r="T4" s="1">
-        <f>P4</f>
+        <f t="shared" si="0"/>
         <v>496</v>
       </c>
       <c r="U4" s="1">
-        <f>T4+1</f>
+        <f t="shared" si="1"/>
         <v>497</v>
       </c>
       <c r="V4" s="6">
-        <f>-(LN(0.04))/Q4</f>
+        <f t="shared" si="2"/>
         <v>9.4672818378476492E-2</v>
       </c>
       <c r="W4" s="1">
-        <f>V4/L4</f>
+        <f t="shared" si="3"/>
         <v>0.32987044731176479</v>
       </c>
       <c r="X4" s="1">
@@ -6128,7 +6146,7 @@
         <v>496</v>
       </c>
       <c r="Y4" s="1">
-        <f>X4+1</f>
+        <f t="shared" si="4"/>
         <v>497</v>
       </c>
       <c r="Z4" s="1">
@@ -6139,14 +6157,14 @@
       </c>
       <c r="AC4"/>
       <c r="AD4">
-        <f>AC4/V4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>64</v>
       </c>
@@ -6193,19 +6211,19 @@
         <v>2.4041199999999998</v>
       </c>
       <c r="T5" s="1">
-        <f>P5</f>
+        <f t="shared" si="0"/>
         <v>489</v>
       </c>
       <c r="U5" s="1">
-        <f>T5+1</f>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="V5" s="6">
-        <f>-(LN(0.04))/Q5</f>
+        <f t="shared" si="2"/>
         <v>0.10383470402800647</v>
       </c>
       <c r="W5" s="1">
-        <f>V5/L5</f>
+        <f t="shared" si="3"/>
         <v>0.27912554846238297</v>
       </c>
       <c r="X5" s="1">
@@ -6213,7 +6231,7 @@
         <v>489</v>
       </c>
       <c r="Y5" s="1">
-        <f>X5+1</f>
+        <f t="shared" si="4"/>
         <v>490</v>
       </c>
       <c r="Z5" s="1">
@@ -6226,7 +6244,7 @@
         <v>0.23</v>
       </c>
       <c r="AD5">
-        <f>AC5/V5</f>
+        <f t="shared" si="5"/>
         <v>2.2150590417050164</v>
       </c>
       <c r="AE5" s="1">
@@ -6236,7 +6254,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>65</v>
       </c>
@@ -6283,19 +6301,19 @@
         <v>2.9129999999999998</v>
       </c>
       <c r="T6" s="1">
-        <f>P6</f>
+        <f t="shared" si="0"/>
         <v>805</v>
       </c>
       <c r="U6" s="1">
-        <f>T6+1</f>
+        <f t="shared" si="1"/>
         <v>806</v>
       </c>
       <c r="V6" s="6">
-        <f>-(LN(0.04))/Q6</f>
+        <f t="shared" si="2"/>
         <v>0.29262507498801821</v>
       </c>
       <c r="W6" s="1">
-        <f>V6/L6</f>
+        <f t="shared" si="3"/>
         <v>2.6362619368289928</v>
       </c>
       <c r="X6" s="1">
@@ -6303,7 +6321,7 @@
         <v>254</v>
       </c>
       <c r="Y6" s="1">
-        <f>X6+1</f>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="Z6" s="1">
@@ -6319,7 +6337,7 @@
         <v>0.3</v>
       </c>
       <c r="AD6">
-        <f>AC6/V6</f>
+        <f t="shared" si="5"/>
         <v>1.0252026420233595</v>
       </c>
       <c r="AE6" s="1">
@@ -6329,7 +6347,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>65</v>
       </c>
@@ -6376,19 +6394,19 @@
         <v>3.0009999999999999</v>
       </c>
       <c r="T7" s="1">
-        <f>P7</f>
+        <f t="shared" si="0"/>
         <v>394</v>
       </c>
       <c r="U7" s="1">
-        <f>T7+1</f>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="V7" s="6">
-        <f>-(LN(0.04))/Q7</f>
+        <f t="shared" si="2"/>
         <v>0.26823965207235007</v>
       </c>
       <c r="W7" s="1">
-        <f>V7/L7</f>
+        <f t="shared" si="3"/>
         <v>2.2353304339362507</v>
       </c>
       <c r="X7" s="1">
@@ -6396,7 +6414,7 @@
         <v>254</v>
       </c>
       <c r="Y7" s="1">
-        <f>X7+1</f>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="Z7" s="1">
@@ -6410,14 +6428,14 @@
       </c>
       <c r="AC7"/>
       <c r="AD7">
-        <f>AC7/V7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
@@ -6464,19 +6482,19 @@
         <v>2.9409999999999998</v>
       </c>
       <c r="T8" s="1">
-        <f>P8</f>
+        <f t="shared" si="0"/>
         <v>476</v>
       </c>
       <c r="U8" s="1">
-        <f>T8+1</f>
+        <f t="shared" si="1"/>
         <v>477</v>
       </c>
       <c r="V8" s="6">
-        <f>-(LN(0.04))/Q8</f>
+        <f t="shared" si="2"/>
         <v>0.45983940355260006</v>
       </c>
       <c r="W8" s="1">
-        <f>V8/L8</f>
+        <f t="shared" si="3"/>
         <v>1.9735596718995709</v>
       </c>
       <c r="X8" s="1">
@@ -6484,7 +6502,7 @@
         <v>254</v>
       </c>
       <c r="Y8" s="1">
-        <f>X8+1</f>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="Z8" s="1">
@@ -6500,7 +6518,7 @@
         <v>0.16</v>
       </c>
       <c r="AD8">
-        <f>AC8/V8</f>
+        <f t="shared" si="5"/>
         <v>0.34794756335338267</v>
       </c>
       <c r="AE8" s="1">
@@ -6510,7 +6528,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>65</v>
       </c>
@@ -6560,19 +6578,19 @@
         <v>2.9860000000000002</v>
       </c>
       <c r="T9" s="1">
-        <f>P9</f>
+        <f t="shared" si="0"/>
         <v>506</v>
       </c>
       <c r="U9" s="1">
-        <f>T9+1</f>
+        <f t="shared" si="1"/>
         <v>507</v>
       </c>
       <c r="V9" s="6">
-        <f>-(LN(0.04))/Q9</f>
+        <f t="shared" si="2"/>
         <v>0.29262507498801821</v>
       </c>
       <c r="W9" s="1">
-        <f>V9/L9</f>
+        <f t="shared" si="3"/>
         <v>1.2192711457834093</v>
       </c>
       <c r="X9" s="1">
@@ -6580,7 +6598,7 @@
         <v>254</v>
       </c>
       <c r="Y9" s="1">
-        <f>X9+1</f>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="Z9" s="1">
@@ -6594,14 +6612,14 @@
       </c>
       <c r="AC9"/>
       <c r="AD9">
-        <f>AC9/V9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>74</v>
       </c>
@@ -6645,23 +6663,23 @@
         <v>2.99</v>
       </c>
       <c r="T10" s="1">
-        <f>P10</f>
+        <f t="shared" si="0"/>
         <v>268</v>
       </c>
       <c r="U10" s="1">
-        <f>T10+1</f>
+        <f t="shared" si="1"/>
         <v>269</v>
       </c>
       <c r="V10" s="6">
-        <f>-(LN(0.04))/Q10</f>
+        <f t="shared" si="2"/>
         <v>0.12875503299472801</v>
       </c>
       <c r="W10" s="1">
-        <f>V10/L10</f>
+        <f t="shared" si="3"/>
         <v>1.7167337732630403</v>
       </c>
       <c r="Y10" s="1">
-        <f>X10+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Z10" s="1">
@@ -6674,7 +6692,7 @@
         <v>0.01</v>
       </c>
       <c r="AD10">
-        <f>AC10/V10</f>
+        <f t="shared" si="5"/>
         <v>7.7666866819951483E-2</v>
       </c>
       <c r="AE10" s="1">
@@ -6684,7 +6702,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>61</v>
       </c>
@@ -6707,10 +6725,10 @@
         <v>0.87</v>
       </c>
       <c r="J11" s="1">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K11" s="1">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L11" s="3">
         <v>0.442</v>
@@ -6734,19 +6752,19 @@
         <v>2.9693100000000001</v>
       </c>
       <c r="T11" s="1">
-        <f>P11</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="U11" s="1">
-        <f>T11+1</f>
+        <f t="shared" si="1"/>
         <v>171</v>
       </c>
       <c r="V11" s="6">
-        <f>-(LN(0.04))/Q11</f>
+        <f t="shared" si="2"/>
         <v>0.32188758248682003</v>
       </c>
       <c r="W11" s="1">
-        <f>V11/L11</f>
+        <f t="shared" si="3"/>
         <v>0.7282524490652037</v>
       </c>
       <c r="X11" s="1">
@@ -6754,7 +6772,7 @@
         <v>170</v>
       </c>
       <c r="Y11" s="1">
-        <f>X11+1</f>
+        <f t="shared" si="4"/>
         <v>171</v>
       </c>
       <c r="Z11" s="1">
@@ -6765,14 +6783,17 @@
       </c>
       <c r="AC11"/>
       <c r="AD11">
-        <f>AC11/V11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>65</v>
       </c>
@@ -6792,13 +6813,13 @@
         <v>0.84</v>
       </c>
       <c r="H12" s="1">
-        <v>975</v>
+        <v>930</v>
       </c>
       <c r="K12" s="1">
-        <v>1161</v>
+        <v>1107</v>
       </c>
       <c r="L12" s="3">
-        <v>0.6</v>
+        <v>0.214</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -6819,27 +6840,27 @@
         <v>2.92</v>
       </c>
       <c r="T12" s="1">
-        <f>P12</f>
+        <f t="shared" si="0"/>
         <v>762</v>
       </c>
       <c r="U12" s="1">
-        <f>T12+1</f>
+        <f t="shared" si="1"/>
         <v>763</v>
       </c>
       <c r="V12" s="6">
-        <f>-(LN(0.04))/Q12</f>
+        <f t="shared" si="2"/>
         <v>0.24760583268216926</v>
       </c>
       <c r="W12" s="1">
         <f>V12/L12</f>
-        <v>0.41267638780361543</v>
+        <v>1.157036601318548</v>
       </c>
       <c r="X12" s="1">
         <f>T12</f>
         <v>762</v>
       </c>
       <c r="Y12" s="1">
-        <f>X12+1</f>
+        <f t="shared" si="4"/>
         <v>763</v>
       </c>
       <c r="Z12" s="1">
@@ -6850,14 +6871,17 @@
       </c>
       <c r="AC12"/>
       <c r="AD12">
-        <f>AC12/V12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="AH12" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>64</v>
       </c>
@@ -6895,19 +6919,19 @@
         <v>3.2469600000000001</v>
       </c>
       <c r="T13" s="1">
-        <f>P13</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="U13" s="1">
-        <f>T13+1</f>
+        <f t="shared" si="1"/>
         <v>201</v>
       </c>
       <c r="V13" s="6">
-        <f>-(LN(0.04))/Q13</f>
+        <f t="shared" si="2"/>
         <v>0.40235947810852507</v>
       </c>
       <c r="W13" s="1">
-        <f>V13/L13</f>
+        <f t="shared" si="3"/>
         <v>1.3874464762362935</v>
       </c>
       <c r="X13" s="1">
@@ -6915,7 +6939,7 @@
         <v>200</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13+1</f>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="Z13" s="1">
@@ -6928,7 +6952,7 @@
         <v>0.36</v>
       </c>
       <c r="AD13">
-        <f>AC13/V13</f>
+        <f t="shared" si="5"/>
         <v>0.894722305765841</v>
       </c>
       <c r="AE13" s="1">
@@ -6938,7 +6962,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>142</v>
       </c>
@@ -6976,19 +7000,19 @@
         <v>3.089</v>
       </c>
       <c r="T14" s="1">
-        <f>P14</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="U14" s="1">
-        <f>T14+1</f>
+        <f t="shared" si="1"/>
         <v>326</v>
       </c>
       <c r="V14" s="6">
-        <f>-(LN(0.04))/Q14</f>
+        <f t="shared" si="2"/>
         <v>0.24760583268216926</v>
       </c>
       <c r="W14" s="1">
-        <f>V14/L14</f>
+        <f t="shared" si="3"/>
         <v>0.82535277560723086</v>
       </c>
       <c r="X14" s="1">
@@ -6996,7 +7020,7 @@
         <v>279.39999999999998</v>
       </c>
       <c r="Y14" s="1">
-        <f>X14+1</f>
+        <f t="shared" si="4"/>
         <v>280.39999999999998</v>
       </c>
       <c r="Z14" s="1">
@@ -7010,14 +7034,14 @@
       </c>
       <c r="AC14"/>
       <c r="AD14">
-        <f>AC14/V14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH14" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>63</v>
       </c>
@@ -7064,19 +7088,19 @@
         <v>3.21</v>
       </c>
       <c r="T15" s="1">
-        <f>P15</f>
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
       <c r="U15" s="1">
-        <f>T15+1</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="V15" s="6">
-        <f>-(LN(0.04))/Q15</f>
+        <f t="shared" si="2"/>
         <v>0.53647930414470013</v>
       </c>
       <c r="W15" s="1">
-        <f>V15/L15</f>
+        <f t="shared" si="3"/>
         <v>0.95120443997287263</v>
       </c>
       <c r="X15" s="1">
@@ -7084,7 +7108,7 @@
         <v>177.79999999999998</v>
       </c>
       <c r="Y15" s="1">
-        <f>X15+1</f>
+        <f t="shared" si="4"/>
         <v>178.79999999999998</v>
       </c>
       <c r="Z15" s="1">
@@ -7097,7 +7121,7 @@
         <v>0.42</v>
       </c>
       <c r="AD15">
-        <f>AC15/V15</f>
+        <f t="shared" si="5"/>
         <v>0.78288201754511089</v>
       </c>
       <c r="AE15" s="1">
@@ -7107,7 +7131,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>63</v>
       </c>
@@ -7154,19 +7178,19 @@
         <v>2.96</v>
       </c>
       <c r="T16" s="1">
-        <f>P16</f>
+        <f t="shared" si="0"/>
         <v>206</v>
       </c>
       <c r="U16" s="1">
-        <f>T16+1</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="V16" s="6">
-        <f>-(LN(0.04))/Q16</f>
+        <f t="shared" si="2"/>
         <v>0.64377516497364007</v>
       </c>
       <c r="W16" s="1">
-        <f>V16/L16</f>
+        <f t="shared" si="3"/>
         <v>0.49521166536433847</v>
       </c>
       <c r="X16" s="1">
@@ -7174,7 +7198,7 @@
         <v>206</v>
       </c>
       <c r="Y16" s="1">
-        <f>X16+1</f>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="Z16" s="1">
@@ -7187,7 +7211,7 @@
         <v>0.01</v>
       </c>
       <c r="AD16">
-        <f>AC16/V16</f>
+        <f t="shared" si="5"/>
         <v>1.5533373363990298E-2</v>
       </c>
       <c r="AE16" s="1">
@@ -7206,19 +7230,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CB8026-358C-A14F-9410-9DBF6F246876}">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="14.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="14.1640625" style="1"/>
-    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.1640625" style="1"/>
+    <col min="1" max="4" width="14.19921875" style="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="11" width="14.19921875" style="1"/>
+    <col min="12" max="12" width="14.296875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>143</v>
       </c>
@@ -7322,7 +7345,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>75</v>
       </c>
@@ -7366,19 +7389,19 @@
         <v>3.0033599999999998</v>
       </c>
       <c r="T2" s="1">
-        <f>P2</f>
+        <f t="shared" ref="T2:T14" si="0">P2</f>
         <v>175</v>
       </c>
       <c r="U2" s="1">
-        <f>T2+1</f>
+        <f t="shared" ref="U2:U14" si="1">T2+1</f>
         <v>176</v>
       </c>
       <c r="V2" s="6">
-        <f>-(LN(0.04))/Q2</f>
+        <f t="shared" ref="V2:V14" si="2">-(LN(0.04))/Q2</f>
         <v>0.11921762314326668</v>
       </c>
       <c r="W2" s="1">
-        <f>V2/L2</f>
+        <f t="shared" ref="W2:W14" si="3">V2/L2</f>
         <v>0.80825507215774028</v>
       </c>
       <c r="X2" s="1">
@@ -7399,7 +7422,7 @@
         <v>0.04</v>
       </c>
       <c r="AD2">
-        <f>AC2/V2</f>
+        <f t="shared" ref="AD2:AD14" si="4">AC2/V2</f>
         <v>0.33552086466219039</v>
       </c>
       <c r="AE2" s="1">
@@ -7409,7 +7432,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>62</v>
       </c>
@@ -7456,19 +7479,19 @@
         <v>3.2429700000000001</v>
       </c>
       <c r="T3" s="1">
-        <f>P3</f>
+        <f t="shared" si="0"/>
         <v>269</v>
       </c>
       <c r="U3" s="1">
-        <f>T3+1</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="V3" s="6">
-        <f>-(LN(0.04))/Q3</f>
+        <f t="shared" si="2"/>
         <v>0.12875503299472801</v>
       </c>
       <c r="W3" s="1">
-        <f>V3/L3</f>
+        <f t="shared" si="3"/>
         <v>0.32028615172817915</v>
       </c>
       <c r="X3" s="1">
@@ -7489,7 +7512,7 @@
         <v>0.11</v>
       </c>
       <c r="AD3">
-        <f>AC3/V3</f>
+        <f t="shared" si="4"/>
         <v>0.85433553501946635</v>
       </c>
       <c r="AE3" s="1">
@@ -7499,7 +7522,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>62</v>
       </c>
@@ -7546,19 +7569,19 @@
         <v>2.8540000000000001</v>
       </c>
       <c r="T4" s="1">
-        <f>P4</f>
+        <f t="shared" si="0"/>
         <v>511</v>
       </c>
       <c r="U4" s="1">
-        <f>T4+1</f>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="V4" s="6">
-        <f>-(LN(0.04))/Q4</f>
+        <f t="shared" si="2"/>
         <v>7.3156268747004552E-2</v>
       </c>
       <c r="W4" s="1">
-        <f>V4/L4</f>
+        <f t="shared" si="3"/>
         <v>0.33102384048418348</v>
       </c>
       <c r="X4" s="1">
@@ -7566,7 +7589,7 @@
         <v>406.4</v>
       </c>
       <c r="Y4" s="1">
-        <f>X4+1</f>
+        <f t="shared" ref="Y4:Y14" si="5">X4+1</f>
         <v>407.4</v>
       </c>
       <c r="Z4" s="1">
@@ -7582,7 +7605,7 @@
         <v>0.13</v>
       </c>
       <c r="AD4">
-        <f>AC4/V4</f>
+        <f t="shared" si="4"/>
         <v>1.7770179128404902</v>
       </c>
       <c r="AE4" s="1">
@@ -7592,7 +7615,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>62</v>
       </c>
@@ -7639,19 +7662,19 @@
         <v>2.839</v>
       </c>
       <c r="T5" s="1">
-        <f>P5</f>
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
       <c r="U5" s="1">
-        <f>T5+1</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="V5" s="6">
-        <f>-(LN(0.04))/Q5</f>
+        <f t="shared" si="2"/>
         <v>0.12875503299472801</v>
       </c>
       <c r="W5" s="1">
-        <f>V5/L5</f>
+        <f t="shared" si="3"/>
         <v>0.37780232686246484</v>
       </c>
       <c r="X5" s="1">
@@ -7659,7 +7682,7 @@
         <v>199</v>
       </c>
       <c r="Y5" s="1">
-        <f>X5+1</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="Z5" s="1">
@@ -7672,7 +7695,7 @@
         <v>0.21</v>
       </c>
       <c r="AD5">
-        <f>AC5/V5</f>
+        <f t="shared" si="4"/>
         <v>1.6310042032189811</v>
       </c>
       <c r="AE5" s="1">
@@ -7682,7 +7705,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>62</v>
       </c>
@@ -7729,19 +7752,19 @@
         <v>3.03545</v>
       </c>
       <c r="T6" s="1">
-        <f>P6</f>
+        <f t="shared" si="0"/>
         <v>355</v>
       </c>
       <c r="U6" s="1">
-        <f>T6+1</f>
+        <f t="shared" si="1"/>
         <v>356</v>
       </c>
       <c r="V6" s="6">
-        <f>-(LN(0.04))/Q6</f>
+        <f t="shared" si="2"/>
         <v>6.4377516497364007E-2</v>
       </c>
       <c r="W6" s="1">
-        <f>V6/L6</f>
+        <f t="shared" si="3"/>
         <v>0.1463125374940091</v>
       </c>
       <c r="X6" s="1">
@@ -7749,7 +7772,7 @@
         <v>355.59999999999997</v>
       </c>
       <c r="Y6" s="1">
-        <f>X6+1</f>
+        <f t="shared" si="5"/>
         <v>356.59999999999997</v>
       </c>
       <c r="Z6" s="1">
@@ -7765,7 +7788,7 @@
         <v>0.25</v>
       </c>
       <c r="AD6">
-        <f>AC6/V6</f>
+        <f t="shared" si="4"/>
         <v>3.8833433409975742</v>
       </c>
       <c r="AE6" s="1">
@@ -7775,7 +7798,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
@@ -7822,19 +7845,19 @@
         <v>3.21082</v>
       </c>
       <c r="T7" s="1">
-        <f>P7</f>
+        <f t="shared" si="0"/>
         <v>164</v>
       </c>
       <c r="U7" s="1">
-        <f>T7+1</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="V7" s="6">
-        <f>-(LN(0.04))/Q7</f>
+        <f t="shared" si="2"/>
         <v>0.64377516497364007</v>
       </c>
       <c r="W7" s="1">
-        <f>V7/L7</f>
+        <f t="shared" si="3"/>
         <v>0.85206163056533657</v>
       </c>
       <c r="X7" s="1">
@@ -7842,7 +7865,7 @@
         <v>177.79999999999998</v>
       </c>
       <c r="Y7" s="1">
-        <f>X7+1</f>
+        <f t="shared" si="5"/>
         <v>178.79999999999998</v>
       </c>
       <c r="Z7" s="1">
@@ -7856,14 +7879,14 @@
       </c>
       <c r="AC7"/>
       <c r="AD7">
-        <f>AC7/V7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>63</v>
       </c>
@@ -7910,19 +7933,19 @@
         <v>3.21082</v>
       </c>
       <c r="T8" s="1">
-        <f>P8</f>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
       <c r="U8" s="1">
-        <f>T8+1</f>
+        <f t="shared" si="1"/>
         <v>265</v>
       </c>
       <c r="V8" s="6">
-        <f>-(LN(0.04))/Q8</f>
+        <f t="shared" si="2"/>
         <v>0.53647930414470013</v>
       </c>
       <c r="W8" s="1">
-        <f>V8/L8</f>
+        <f t="shared" si="3"/>
         <v>0.99717342777825302</v>
       </c>
       <c r="X8" s="1">
@@ -7930,7 +7953,7 @@
         <v>254</v>
       </c>
       <c r="Y8" s="1">
-        <f>X8+1</f>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="Z8" s="1">
@@ -7946,7 +7969,7 @@
         <v>1.32</v>
       </c>
       <c r="AD8">
-        <f>AC8/V8</f>
+        <f t="shared" si="4"/>
         <v>2.4604863408560629</v>
       </c>
       <c r="AE8" s="1">
@@ -7956,7 +7979,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>65</v>
       </c>
@@ -8000,19 +8023,19 @@
         <v>2.88598</v>
       </c>
       <c r="T9" s="1">
-        <f>P9</f>
+        <f t="shared" si="0"/>
         <v>289</v>
       </c>
       <c r="U9" s="1">
-        <f>T9+1</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="V9" s="6">
-        <f>-(LN(0.04))/Q9</f>
+        <f t="shared" si="2"/>
         <v>0.45983940355260006</v>
       </c>
       <c r="W9" s="1">
-        <f>V9/L9</f>
+        <f t="shared" si="3"/>
         <v>1.4978482200410426</v>
       </c>
       <c r="X9" s="1">
@@ -8020,7 +8043,7 @@
         <v>289</v>
       </c>
       <c r="Y9" s="1">
-        <f>X9+1</f>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="Z9" s="1">
@@ -8031,14 +8054,14 @@
       </c>
       <c r="AC9"/>
       <c r="AD9">
-        <f>AC9/V9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>61</v>
       </c>
@@ -8088,19 +8111,19 @@
         <v>3.3187099999999998</v>
       </c>
       <c r="T10" s="1">
-        <f>P10</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="U10" s="1">
-        <f>T10+1</f>
+        <f t="shared" si="1"/>
         <v>197</v>
       </c>
       <c r="V10" s="6">
-        <f>-(LN(0.04))/Q10</f>
+        <f t="shared" si="2"/>
         <v>0.53647930414470013</v>
       </c>
       <c r="W10" s="1">
-        <f>V10/L10</f>
+        <f t="shared" si="3"/>
         <v>0.3245488833301271</v>
       </c>
       <c r="X10" s="1">
@@ -8108,7 +8131,7 @@
         <v>304.79999999999995</v>
       </c>
       <c r="Y10" s="1">
-        <f>X10+1</f>
+        <f t="shared" si="5"/>
         <v>305.79999999999995</v>
       </c>
       <c r="Z10" s="1">
@@ -8124,7 +8147,7 @@
         <v>0.16</v>
       </c>
       <c r="AD10">
-        <f>AC10/V10</f>
+        <f t="shared" si="4"/>
         <v>0.29824076858861365</v>
       </c>
       <c r="AE10" s="1">
@@ -8134,7 +8157,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>61</v>
       </c>
@@ -8181,19 +8204,19 @@
         <v>3.109</v>
       </c>
       <c r="T11" s="1">
-        <f>P11</f>
+        <f t="shared" si="0"/>
         <v>374</v>
       </c>
       <c r="U11" s="1">
-        <f>T11+1</f>
+        <f t="shared" si="1"/>
         <v>375</v>
       </c>
       <c r="V11" s="6">
-        <f>-(LN(0.04))/Q11</f>
+        <f t="shared" si="2"/>
         <v>0.1463125374940091</v>
       </c>
       <c r="W11" s="1">
-        <f>V11/L11</f>
+        <f t="shared" si="3"/>
         <v>0.50802964407642048</v>
       </c>
       <c r="X11" s="1">
@@ -8201,7 +8224,7 @@
         <v>304.79999999999995</v>
       </c>
       <c r="Y11" s="1">
-        <f>X11+1</f>
+        <f t="shared" si="5"/>
         <v>305.79999999999995</v>
       </c>
       <c r="Z11" s="1">
@@ -8217,7 +8240,7 @@
         <v>0.2</v>
       </c>
       <c r="AD11">
-        <f>AC11/V11</f>
+        <f t="shared" si="4"/>
         <v>1.3669368560311463</v>
       </c>
       <c r="AE11" s="1">
@@ -8227,7 +8250,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>65</v>
       </c>
@@ -8265,19 +8288,19 @@
         <v>2.86</v>
       </c>
       <c r="T12" s="1">
-        <f>P12</f>
+        <f t="shared" si="0"/>
         <v>910</v>
       </c>
       <c r="U12" s="1">
-        <f>T12+1</f>
+        <f t="shared" si="1"/>
         <v>911</v>
       </c>
       <c r="V12" s="6">
-        <f>-(LN(0.04))/Q12</f>
+        <f t="shared" si="2"/>
         <v>0.21459172165788004</v>
       </c>
       <c r="W12" s="1">
-        <f>V12/L12</f>
+        <f t="shared" si="3"/>
         <v>0.94450581715616211</v>
       </c>
       <c r="X12" s="1">
@@ -8285,7 +8308,7 @@
         <v>910</v>
       </c>
       <c r="Y12" s="1">
-        <f>X12+1</f>
+        <f t="shared" si="5"/>
         <v>911</v>
       </c>
       <c r="Z12" s="1">
@@ -8298,7 +8321,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AD12">
-        <f>AC12/V12</f>
+        <f t="shared" si="4"/>
         <v>0.65240168128759246</v>
       </c>
       <c r="AE12" s="1">
@@ -8308,7 +8331,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>141</v>
       </c>
@@ -8355,19 +8378,19 @@
         <v>3.0109499999999998</v>
       </c>
       <c r="T13" s="1">
-        <f>P13</f>
+        <f t="shared" si="0"/>
         <v>876</v>
       </c>
       <c r="U13" s="1">
-        <f>T13+1</f>
+        <f t="shared" si="1"/>
         <v>877</v>
       </c>
       <c r="V13" s="6">
-        <f>-(LN(0.04))/Q13</f>
+        <f t="shared" si="2"/>
         <v>0.16941451709832633</v>
       </c>
       <c r="W13" s="1">
-        <f>V13/L13</f>
+        <f t="shared" si="3"/>
         <v>0.65159429653202439</v>
       </c>
       <c r="X13" s="1">
@@ -8375,7 +8398,7 @@
         <v>876</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13+1</f>
+        <f t="shared" si="5"/>
         <v>877</v>
       </c>
       <c r="Z13" s="1">
@@ -8386,14 +8409,14 @@
       </c>
       <c r="AC13"/>
       <c r="AD13">
-        <f>AC13/V13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>62</v>
       </c>
@@ -8432,19 +8455,19 @@
         <v>3.16</v>
       </c>
       <c r="T14" s="1">
-        <f>P14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <f>T14+1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V14" s="6">
-        <f>-(LN(0.04))/Q14</f>
+        <f t="shared" si="2"/>
         <v>7.8509166460200008E-2</v>
       </c>
       <c r="W14" s="1">
-        <f>V14/L14</f>
+        <f t="shared" si="3"/>
         <v>0.28548787803709091</v>
       </c>
       <c r="X14" s="1">
@@ -8452,7 +8475,7 @@
         <v>50.8</v>
       </c>
       <c r="Y14" s="1">
-        <f>X14+1</f>
+        <f t="shared" si="5"/>
         <v>51.8</v>
       </c>
       <c r="Z14" s="1">
@@ -8462,14 +8485,14 @@
         <v>5</v>
       </c>
       <c r="AD14" s="1">
-        <f>AC14/V14</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH14" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>61</v>
       </c>
@@ -8489,7 +8512,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>61</v>
       </c>
@@ -8516,26 +8539,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD565BC1-E580-6F46-B54B-9275F0F55BB8}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="14.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="14.1640625" style="1"/>
-    <col min="10" max="12" width="14.1640625" style="8" customWidth="1"/>
-    <col min="13" max="14" width="14.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" style="1"/>
-    <col min="16" max="17" width="14.1640625" style="8"/>
-    <col min="18" max="21" width="14.1640625" style="1"/>
-    <col min="22" max="23" width="14.1640625" style="8"/>
-    <col min="24" max="25" width="14.1640625" style="1"/>
-    <col min="26" max="27" width="14.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="14.1640625" style="1"/>
+    <col min="1" max="1" width="32.19921875" style="1" customWidth="1"/>
+    <col min="2" max="8" width="14.19921875" style="1"/>
+    <col min="9" max="9" width="19.296875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="14.19921875" style="8" customWidth="1"/>
+    <col min="13" max="14" width="14.296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.19921875" style="1"/>
+    <col min="16" max="17" width="14.19921875" style="8"/>
+    <col min="18" max="21" width="14.19921875" style="1"/>
+    <col min="22" max="23" width="14.19921875" style="8"/>
+    <col min="24" max="25" width="14.19921875" style="1"/>
+    <col min="26" max="27" width="14.19921875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="14.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -8609,7 +8633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
@@ -8652,7 +8676,7 @@
       </c>
       <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -8692,7 +8716,7 @@
       <c r="U3" s="5"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -8753,7 +8777,7 @@
         <v>143.29896907216497</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -8814,7 +8838,7 @@
         <v>384.61538461538458</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
@@ -8864,7 +8888,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -8914,7 +8938,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="14" customFormat="1">
+    <row r="8" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>154</v>
       </c>
@@ -8946,7 +8970,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="14" customFormat="1">
+    <row r="9" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>154</v>
       </c>
@@ -8976,7 +9000,7 @@
       </c>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>88</v>
       </c>
@@ -9034,7 +9058,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>88</v>
       </c>
@@ -9087,7 +9111,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
@@ -9132,10 +9156,10 @@
         <v>2.56968</v>
       </c>
     </row>
-    <row r="23" spans="13:13" ht="31">
+    <row r="23" spans="13:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="M23" s="11"/>
     </row>
-    <row r="27" spans="13:13">
+    <row r="27" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M27" s="10"/>
     </row>
   </sheetData>
